--- a/uploads/testexcel.xlsx
+++ b/uploads/testexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyrian\projects\clearence-certificate\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyrian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014FD37-D3B0-4260-894D-98278E0EFF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F93758-D4D6-4725-AAFC-FC6427F92510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8880" xr2:uid="{0F39041C-18A0-4BCD-A84D-4BFDA069446B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{0F39041C-18A0-4BCD-A84D-4BFDA069446B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Registration_Number</t>
   </si>
@@ -87,20 +87,55 @@
     <t>Sarah Lee</t>
   </si>
   <si>
-    <t>Mechanical Engineering</t>
-  </si>
-  <si>
     <t>555-4321</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>M.Tech</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>lol@lol.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,16 +158,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,21 +483,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B190B73-5EF7-4C07-8681-70A4D520862D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,16 +518,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -507,17 +552,23 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1">
         <v>2022</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2023</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -536,17 +587,23 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1">
         <v>2021</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2022</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -560,22 +617,28 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2021</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -586,26 +649,37 @@
         <v>456789012</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
         <v>2019</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2020</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{ED3082DF-08EC-4FF3-8F43-6F49B4D8B411}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{FF6E728C-0CBF-48D2-9332-36E22791257D}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{7EE1603E-0561-4E2D-BD7C-F627511606B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>